--- a/Excel/Skill-技能表.xlsx
+++ b/Excel/Skill-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkills" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <author>yw</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>导出类型</t>
   </si>
@@ -186,6 +186,9 @@
     <t>[90000,100000,110000,120000]</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>CanDestroy</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
     <t>Sort</t>
   </si>
   <si>
+    <t>配置备注</t>
+  </si>
+  <si>
     <t>是否可以被破坏</t>
   </si>
   <si>
@@ -204,16 +210,25 @@
     <t>决定优先级</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
     <t>?number</t>
   </si>
   <si>
+    <t>万分之4000的概率格挡万分之200000点伤害</t>
+  </si>
+  <si>
     <t>近战模型格挡</t>
   </si>
   <si>
     <t>[0]</t>
+  </si>
+  <si>
+    <t>[4000,200000]</t>
   </si>
 </sst>
 </file>
@@ -226,7 +241,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +264,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -258,6 +279,26 @@
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -783,7 +824,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -818,6 +859,19 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,133 +1049,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1142,182 +1196,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1328,19 +1382,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1803,138 +1878,138 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1955,8 +2030,8 @@
       <c r="F7" s="3"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -2044,22 +2119,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9.375"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="35.25" customWidth="1"/>
+    <col min="1" max="1" width="35.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.175" customWidth="1"/>
+    <col min="5" max="5" width="7.84166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.84166666666667" customWidth="1"/>
+    <col min="7" max="7" width="10.675" customWidth="1"/>
+    <col min="8" max="8" width="14.3416666666667" customWidth="1"/>
+    <col min="9" max="10" width="12.0083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" ht="18.5" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2069,225 +2148,259 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" ht="15" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+    <row r="2" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
-      <c r="A6" s="8" t="s">
+    <row r="6" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="3">
+    <row r="7" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3">
         <v>20000001</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="b">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>170000</v>
       </c>
+      <c r="H7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel/Skill-技能表.xlsx
+++ b/Excel/Skill-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkills" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>导出类型</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>sc</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>number</t>
@@ -1371,7 +1374,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1382,15 +1385,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1407,9 +1404,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1826,8 +1820,8 @@
   <sheetPr/>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1878,139 +1872,139 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>24</v>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:6">
@@ -2018,20 +2012,20 @@
         <v>11001001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -2121,8 +2115,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -2148,164 +2142,164 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>24</v>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A7" s="13" t="s">
-        <v>39</v>
+      <c r="A7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="3">
         <v>20000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -2316,11 +2310,11 @@
       <c r="G7" s="3">
         <v>170000</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">

--- a/Excel/Skill-技能表.xlsx
+++ b/Excel/Skill-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="23145" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkills" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>导出类型</t>
   </si>
@@ -222,16 +222,25 @@
     <t>?number</t>
   </si>
   <si>
-    <t>万分之4000的概率格挡万分之200000点伤害</t>
-  </si>
-  <si>
     <t>近战模型格挡</t>
   </si>
   <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[4000,200000]</t>
+    <t>[4000]</t>
+  </si>
+  <si>
+    <t>[200000]</t>
+  </si>
+  <si>
+    <t>恶魔降临</t>
+  </si>
+  <si>
+    <t>[30000,50000,70000,90000]</t>
+  </si>
+  <si>
+    <t>[90000]</t>
+  </si>
+  <si>
+    <t>[15000]</t>
   </si>
 </sst>
 </file>
@@ -244,7 +253,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,31 +271,27 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -299,9 +304,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF383A42"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1052,133 +1069,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1199,162 +1216,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="15" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="15" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,9 +1381,21 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,31 +1405,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1820,7 +1853,7 @@
   <sheetPr/>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1848,184 +1881,184 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="11">
         <v>11001001</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -2113,119 +2146,120 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="35.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.175" customWidth="1"/>
-    <col min="5" max="5" width="7.84166666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.84166666666667" customWidth="1"/>
-    <col min="7" max="7" width="10.675" customWidth="1"/>
-    <col min="8" max="8" width="14.3416666666667" customWidth="1"/>
-    <col min="9" max="10" width="12.0083333333333" customWidth="1"/>
+    <col min="1" max="1" width="41.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.0083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.0083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.175" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8416666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.175" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.0083333333333" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.0083333333333" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2267,7 +2301,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>38</v>
@@ -2289,32 +2323,65 @@
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="str">
+        <f>"万分之"&amp;H7&amp;"的概率格挡万分之"&amp;I7&amp;"点伤害"</f>
+        <v>万分之[4000]的概率格挡万分之[200000]点伤害</v>
+      </c>
+      <c r="B7" s="11">
+        <v>20000001</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="3">
-        <v>20000001</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>170000</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="I7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="3" t="b">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A8" s="12" t="str">
+        <f>I8&amp;"范围内的敌方单位减少护甲万分之"&amp;J8&amp;"秒"</f>
+        <v>[90000]范围内的敌方单位减少护甲万分之[15000]秒</v>
+      </c>
+      <c r="B8" s="12">
+        <v>21001001</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>170000</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">

--- a/Excel/Skill-技能表.xlsx
+++ b/Excel/Skill-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkills" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>yw</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>导出类型</t>
   </si>
@@ -108,6 +108,9 @@
     <t>array</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -126,6 +129,12 @@
     <t>PassiveSkills</t>
   </si>
   <si>
+    <t>PreSpellTime</t>
+  </si>
+  <si>
+    <t>AfterSpellTime</t>
+  </si>
+  <si>
     <t>Param1</t>
   </si>
   <si>
@@ -135,6 +144,9 @@
     <t>Param3</t>
   </si>
   <si>
+    <t>配置备注</t>
+  </si>
+  <si>
     <t>id唯一</t>
   </si>
   <si>
@@ -153,6 +165,12 @@
     <t>携带的被动技能ID,有些主动同时也会携带被动技能</t>
   </si>
   <si>
+    <t>施法前摇</t>
+  </si>
+  <si>
+    <t>施法后摇</t>
+  </si>
+  <si>
     <t>额外参数1</t>
   </si>
   <si>
@@ -162,34 +180,43 @@
     <t>额外参数3</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>number[]</t>
   </si>
   <si>
     <t>?number[]</t>
   </si>
   <si>
+    <t>?number</t>
+  </si>
+  <si>
     <t>毁灭阴影</t>
   </si>
   <si>
     <t>[120000,110000,100000,90000]</t>
   </si>
   <si>
-    <t>[90000,100000,110000,120000]</t>
-  </si>
-  <si>
-    <t>desc</t>
+    <t>[900000,1000000,1100000,1200000]</t>
+  </si>
+  <si>
+    <t>[55000]</t>
+  </si>
+  <si>
+    <t>[10000]</t>
   </si>
   <si>
     <t>CanDestroy</t>
@@ -201,9 +228,6 @@
     <t>Sort</t>
   </si>
   <si>
-    <t>配置备注</t>
-  </si>
-  <si>
     <t>是否可以被破坏</t>
   </si>
   <si>
@@ -213,13 +237,7 @@
     <t>决定优先级</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>bool</t>
-  </si>
-  <si>
-    <t>?number</t>
   </si>
   <si>
     <t>近战模型格挡</t>
@@ -1391,7 +1409,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,14 +1444,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,7 +1461,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1853,31 +1868,34 @@
   <sheetPr/>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.175" customWidth="1"/>
-    <col min="2" max="2" width="9.84166666666667" customWidth="1"/>
-    <col min="3" max="3" width="49.4083333333333" customWidth="1"/>
-    <col min="4" max="4" width="26.025" customWidth="1"/>
-    <col min="5" max="5" width="33.0833333333333" customWidth="1"/>
-    <col min="6" max="6" width="25.4333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.3416666666667" customWidth="1"/>
-    <col min="8" max="8" width="14.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.3416666666667" customWidth="1"/>
-    <col min="10" max="10" width="21.675" customWidth="1"/>
-    <col min="11" max="12" width="11.3416666666667" customWidth="1"/>
-    <col min="13" max="13" width="23.0083333333333" customWidth="1"/>
-    <col min="14" max="14" width="25.3416666666667" customWidth="1"/>
-    <col min="15" max="15" width="13.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="15.3416666666667" customWidth="1"/>
-    <col min="17" max="17" width="23.5083333333333" customWidth="1"/>
-    <col min="18" max="18" width="17.5083333333333" customWidth="1"/>
-    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
-    <col min="24" max="24" width="19.05" customWidth="1"/>
+    <col min="1" max="1" width="39.5583333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.2583333333333" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.7" style="13" customWidth="1"/>
+    <col min="4" max="4" width="26.4666666666667" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23.9666666666667" style="13" customWidth="1"/>
+    <col min="6" max="6" width="34.2583333333333" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.6666666666667" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.5083333333333" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.7083333333333" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.675" style="13" customWidth="1"/>
+    <col min="11" max="12" width="11.3416666666667" style="13" customWidth="1"/>
+    <col min="13" max="13" width="23.0083333333333" style="13" customWidth="1"/>
+    <col min="14" max="14" width="25.3416666666667" style="13" customWidth="1"/>
+    <col min="15" max="15" width="13.5083333333333" style="13" customWidth="1"/>
+    <col min="16" max="16" width="15.3416666666667" style="13" customWidth="1"/>
+    <col min="17" max="17" width="23.5083333333333" style="13" customWidth="1"/>
+    <col min="18" max="18" width="17.5083333333333" style="13" customWidth="1"/>
+    <col min="19" max="20" width="9" style="13"/>
+    <col min="21" max="21" width="17.8583333333333" style="13" customWidth="1"/>
+    <col min="22" max="23" width="9" style="13"/>
+    <col min="24" max="24" width="19.05" style="13" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:18">
@@ -1905,26 +1923,26 @@
       <c r="R1" s="11"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:9">
+    <row r="3" ht="22.5" customHeight="1" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1952,189 +1970,264 @@
       <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" ht="35" customHeight="1" spans="1:9">
-      <c r="A4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="16" t="s">
+    <row r="4" ht="35" customHeight="1" spans="1:12">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>20</v>
+    <row r="5" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>25</v>
+    <row r="6" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A7" s="11">
+    <row r="7" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A7" s="11" t="str">
+        <f>"对"&amp;J7&amp;"距离处"&amp;K7&amp;"范围的敌方单位造成伤害"</f>
+        <v>对[55000]距离处[10000]范围的敌方单位造成伤害</v>
+      </c>
+      <c r="B7" s="11">
         <v>11001001</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="13">
+        <v>5000</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:1">
+      <c r="A8" s="11"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="0" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
     <cfRule type="duplicateValues" dxfId="0" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="1" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="duplicateValues" dxfId="0" priority="149"/>
     <cfRule type="duplicateValues" dxfId="1" priority="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="0" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="0" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2148,8 +2241,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2196,130 +2289,130 @@
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:10">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:10">
       <c r="A5" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:10">
@@ -2331,7 +2424,7 @@
         <v>20000001</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="b">
@@ -2344,44 +2437,44 @@
         <v>170000</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7" s="11"/>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A8" s="12" t="str">
+      <c r="A8" s="11" t="str">
         <f>I8&amp;"范围内的敌方单位减少护甲万分之"&amp;J8&amp;"秒"</f>
         <v>[90000]范围内的敌方单位减少护甲万分之[15000]秒</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>21001001</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>43</v>
+      <c r="C8" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="12" t="b">
+      <c r="E8" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>46</v>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">

--- a/Excel/Skill-技能表.xlsx
+++ b/Excel/Skill-技能表.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>导出类型</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>[10000]</t>
+  </si>
+  <si>
+    <t>[750000,1500000,2250000,3000000]</t>
   </si>
   <si>
     <t>CanDestroy</t>
@@ -1409,7 +1412,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1459,9 +1462,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1866,13 +1866,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="39.5583333333333" style="13" customWidth="1"/>
     <col min="2" max="2" width="24.2583333333333" style="13" customWidth="1"/>
@@ -1884,7 +1884,8 @@
     <col min="8" max="8" width="14.5083333333333" style="13" customWidth="1"/>
     <col min="9" max="9" width="19.7083333333333" style="13" customWidth="1"/>
     <col min="10" max="10" width="21.675" style="13" customWidth="1"/>
-    <col min="11" max="12" width="11.3416666666667" style="13" customWidth="1"/>
+    <col min="11" max="11" width="11.3416666666667" style="13" customWidth="1"/>
+    <col min="12" max="12" width="28.375" style="13" customWidth="1"/>
     <col min="13" max="13" width="23.0083333333333" style="13" customWidth="1"/>
     <col min="14" max="14" width="25.3416666666667" style="13" customWidth="1"/>
     <col min="15" max="15" width="13.5083333333333" style="13" customWidth="1"/>
@@ -2094,7 +2095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:11">
+    <row r="7" ht="22.5" customHeight="1" spans="1:12">
       <c r="A7" s="11" t="str">
         <f>"对"&amp;J7&amp;"距离处"&amp;K7&amp;"范围的敌方单位造成伤害"</f>
         <v>对[55000]距离处[10000]范围的敌方单位造成伤害</v>
@@ -2125,13 +2126,12 @@
       <c r="K7" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="L7" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" ht="16.5" spans="1:1">
       <c r="A8" s="11"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -2301,13 +2301,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>11</v>
@@ -2333,13 +2333,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>23</v>
@@ -2397,7 +2397,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>30</v>
@@ -2424,7 +2424,7 @@
         <v>20000001</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="b">
@@ -2437,10 +2437,10 @@
         <v>170000</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -2453,7 +2453,7 @@
         <v>21001001</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="b">
@@ -2464,13 +2464,13 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1">

--- a/Excel/Skill-技能表.xlsx
+++ b/Excel/Skill-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkills" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>[55000]</t>
   </si>
   <si>
-    <t>[10000]</t>
+    <t>[5000]</t>
   </si>
   <si>
     <t>[750000,1500000,2250000,3000000]</t>
@@ -1868,34 +1868,34 @@
   <sheetPr/>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="39.5583333333333" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.2583333333333" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.7" style="13" customWidth="1"/>
-    <col min="4" max="4" width="26.4666666666667" style="13" customWidth="1"/>
-    <col min="5" max="5" width="23.9666666666667" style="13" customWidth="1"/>
-    <col min="6" max="6" width="34.2583333333333" style="13" customWidth="1"/>
+    <col min="1" max="1" width="39.5555555555556" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.2592592592593" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.7037037037037" style="13" customWidth="1"/>
+    <col min="4" max="4" width="26.462962962963" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23.962962962963" style="13" customWidth="1"/>
+    <col min="6" max="6" width="34.2592592592593" style="13" customWidth="1"/>
     <col min="7" max="7" width="18.6666666666667" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.5083333333333" style="13" customWidth="1"/>
-    <col min="9" max="9" width="19.7083333333333" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.675" style="13" customWidth="1"/>
-    <col min="11" max="11" width="11.3416666666667" style="13" customWidth="1"/>
-    <col min="12" max="12" width="28.375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="23.0083333333333" style="13" customWidth="1"/>
-    <col min="14" max="14" width="25.3416666666667" style="13" customWidth="1"/>
-    <col min="15" max="15" width="13.5083333333333" style="13" customWidth="1"/>
-    <col min="16" max="16" width="15.3416666666667" style="13" customWidth="1"/>
-    <col min="17" max="17" width="23.5083333333333" style="13" customWidth="1"/>
-    <col min="18" max="18" width="17.5083333333333" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.5092592592593" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.712962962963" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.6759259259259" style="13" customWidth="1"/>
+    <col min="11" max="11" width="11.3425925925926" style="13" customWidth="1"/>
+    <col min="12" max="12" width="28.3796296296296" style="13" customWidth="1"/>
+    <col min="13" max="13" width="23.0092592592593" style="13" customWidth="1"/>
+    <col min="14" max="14" width="25.3425925925926" style="13" customWidth="1"/>
+    <col min="15" max="15" width="13.5092592592593" style="13" customWidth="1"/>
+    <col min="16" max="16" width="15.3425925925926" style="13" customWidth="1"/>
+    <col min="17" max="17" width="23.5092592592593" style="13" customWidth="1"/>
+    <col min="18" max="18" width="17.5092592592593" style="13" customWidth="1"/>
     <col min="19" max="20" width="9" style="13"/>
-    <col min="21" max="21" width="17.8583333333333" style="13" customWidth="1"/>
+    <col min="21" max="21" width="17.8611111111111" style="13" customWidth="1"/>
     <col min="22" max="23" width="9" style="13"/>
-    <col min="24" max="24" width="19.05" style="13" customWidth="1"/>
+    <col min="24" max="24" width="19.0462962962963" style="13" customWidth="1"/>
     <col min="25" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -2097,8 +2097,8 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:12">
       <c r="A7" s="11" t="str">
-        <f>"对"&amp;J7&amp;"距离处"&amp;K7&amp;"范围的敌方单位造成伤害"</f>
-        <v>对[55000]距离处[10000]范围的敌方单位造成伤害</v>
+        <f>"对"&amp;J7&amp;"距离处半径"&amp;K7&amp;"范围的敌方单位造成伤害"</f>
+        <v>对[55000]距离处半径[5000]范围的敌方单位造成伤害</v>
       </c>
       <c r="B7" s="11">
         <v>11001001</v>
@@ -2130,7 +2130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:1">
+    <row r="8" ht="15" spans="1:1">
       <c r="A8" s="11"/>
     </row>
   </sheetData>
@@ -2245,17 +2245,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="41.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.0083333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.0083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.175" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8416666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.0083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.175" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.0083333333333" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.0083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.0092592592593" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.0092592592593" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1759259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8425925925926" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.0092592592593" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1759259259259" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.0092592592593" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.0092592592593" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2473,7 +2473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" ht="14.4" spans="1:1">
       <c r="A9" s="12"/>
     </row>
   </sheetData>
